--- a/bh3/505976911599683049_2021-03-25_12-08-50.xlsx
+++ b/bh3/505976911599683049_2021-03-25_12-08-50.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-04 12:08:25</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44290.50584490741</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -606,10 +620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-04-03 23:31:00</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44289.97986111111</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -681,10 +693,8 @@
           <t>4315999300</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-31 17:45:10</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44286.73969907407</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -744,10 +754,8 @@
           <t>4315999300</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-31 17:29:54</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44286.72909722223</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -823,10 +831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-31 17:04:41</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44286.71158564815</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -890,10 +896,8 @@
           <t>4315999300</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-28 10:49:50</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44283.45127314814</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -961,10 +965,8 @@
           <t>4324793067</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-27 19:47:18</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44282.82451388889</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1028,10 +1030,8 @@
           <t>4323704960</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-27 15:59:50</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44282.66655092593</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1103,10 +1103,8 @@
           <t>4318368458</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:13:10</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44281.59247685185</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1174,10 +1172,8 @@
           <t>4318103277</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:59:09</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44281.54107638889</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1249,10 +1245,8 @@
           <t>4317327331</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-26 09:14:18</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44281.38493055556</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1320,10 +1314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-26 06:26:05</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44281.26811342593</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1395,10 +1387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-26 01:20:37</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44281.05598379629</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1462,10 +1452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-26 00:22:55</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44281.01591435185</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1529,10 +1517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-26 00:18:17</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44281.01269675926</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1600,10 +1586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-26 00:14:13</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44281.00987268519</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1663,10 +1647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-25 23:32:54</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44280.98118055556</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1730,10 +1712,8 @@
           <t>4316095941</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:43:29</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44280.94686342592</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1801,10 +1781,8 @@
           <t>4315999300</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:39:41</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44280.94422453704</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1868,10 +1846,8 @@
           <t>4315999300</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:36:20</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44280.94189814815</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1931,10 +1907,8 @@
           <t>4315999300</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:26:58</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44280.93539351852</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2002,10 +1976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:02:34</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44280.91844907407</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2073,10 +2045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-25 21:34:18</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44280.89881944445</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2144,10 +2114,8 @@
           <t>4315715958</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-25 21:30:20</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44280.89606481481</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2223,10 +2191,8 @@
           <t>4314965153</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:51:54</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44280.78604166667</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2291,10 +2257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:21:53</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44280.76519675926</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2354,10 +2318,8 @@
           <t>4313894626</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:12:13</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44280.75848379629</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2421,10 +2383,8 @@
           <t>4314710195</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:57:21</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44280.74815972222</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2500,10 +2460,8 @@
           <t>4314582368</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:26:39</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44280.72684027778</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2575,10 +2533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:25:09</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44280.72579861111</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2638,10 +2594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:14:19</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44280.71827546296</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2701,10 +2655,8 @@
           <t>4314414732</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:56:39</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44280.70600694444</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2772,10 +2724,8 @@
           <t>4314414732</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:55:04</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44280.70490740741</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2843,10 +2793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:53:19</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44280.70369212963</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -2918,10 +2866,8 @@
           <t>4313893557</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:52:30</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44280.703125</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2997,10 +2943,8 @@
           <t>4314414732</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:52:22</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44280.70303240741</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3069,10 +3013,8 @@
           <t>4314414732</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:52:04</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44280.70282407408</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3141,10 +3083,8 @@
           <t>4314414732</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:51:48</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44280.70263888889</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3213,10 +3153,8 @@
           <t>4314414732</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:50:28</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44280.70171296296</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3284,10 +3222,8 @@
           <t>4314429713</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:47:45</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44280.69982638889</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3356,10 +3292,8 @@
           <t>4314414732</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:43:27</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44280.69684027778</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3428,10 +3362,8 @@
           <t>4313553430</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:38:33</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44280.6934375</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3499,10 +3431,8 @@
           <t>4313553430</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:37:05</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44280.69241898148</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3570,10 +3500,8 @@
           <t>4313553430</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:34:44</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44280.69078703703</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3642,10 +3570,8 @@
           <t>4313553430</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:34:23</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44280.69054398148</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3714,10 +3640,8 @@
           <t>4314382257</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:32:28</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44280.68921296296</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3789,10 +3713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:31:58</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44280.68886574074</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3864,10 +3786,8 @@
           <t>4313553430</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:30:44</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44280.68800925926</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3935,10 +3855,8 @@
           <t>4314366203</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:27:05</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44280.68547453704</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4010,10 +3928,8 @@
           <t>4313553430</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:25:42</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44280.68451388889</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4082,10 +3998,8 @@
           <t>4313553430</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:24:58</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44280.68400462963</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4154,10 +4068,8 @@
           <t>4314352509</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:23:45</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44280.68315972222</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4233,10 +4145,8 @@
           <t>4314343582</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:20:46</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44280.68108796296</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4304,10 +4214,8 @@
           <t>4314329540</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:17:14</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44280.67863425926</v>
       </c>
       <c r="I55" t="n">
         <v>3</v>
@@ -4376,10 +4284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:16:32</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44280.67814814814</v>
       </c>
       <c r="I56" t="n">
         <v>2</v>
@@ -4447,10 +4353,8 @@
           <t>4313722176</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:12:53</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44280.67561342593</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4522,10 +4426,8 @@
           <t>4314268962</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:07:04</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44280.67157407408</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4589,10 +4491,8 @@
           <t>4314268962</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:58:12</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44280.66541666666</v>
       </c>
       <c r="I59" t="n">
         <v>3</v>
@@ -4656,10 +4556,8 @@
           <t>4314207904</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:38:32</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44280.65175925926</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4735,10 +4633,8 @@
           <t>4314207904</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:37:01</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44280.65070601852</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4814,10 +4710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:30:42</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44280.64631944444</v>
       </c>
       <c r="I62" t="n">
         <v>2</v>
@@ -4889,10 +4783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:24:44</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44280.64217592592</v>
       </c>
       <c r="I63" t="n">
         <v>2</v>
@@ -4968,10 +4860,8 @@
           <t>4314079672</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:18:37</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44280.63792824074</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5043,10 +4933,8 @@
           <t>4314150689</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:15:55</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44280.63605324074</v>
       </c>
       <c r="I65" t="n">
         <v>2</v>
@@ -5114,10 +5002,8 @@
           <t>4314142037</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:15:07</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44280.63549768519</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5177,10 +5063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:12:57</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44280.63399305556</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5256,10 +5140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:11:25</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44280.63292824074</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5323,10 +5205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:09:19</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44280.63146990741</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5402,10 +5282,8 @@
           <t>4314124309</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:09:06</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44280.63131944444</v>
       </c>
       <c r="I70" t="n">
         <v>2</v>
@@ -5481,10 +5359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:08:26</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44280.63085648148</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5556,10 +5432,8 @@
           <t>4314122865</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:07:34</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44280.63025462963</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5635,10 +5509,8 @@
           <t>4314116353</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:04:51</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44280.62836805556</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5710,10 +5582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:02:03</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44280.62642361111</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -5785,10 +5655,8 @@
           <t>4314100216</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:58:23</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44280.62387731481</v>
       </c>
       <c r="I75" t="n">
         <v>2</v>
@@ -5860,10 +5728,8 @@
           <t>4314079672</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:53:36</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44280.62055555556</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5939,10 +5805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:51:07</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44280.61883101852</v>
       </c>
       <c r="I77" t="n">
         <v>2</v>
@@ -6014,10 +5878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:39:16</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44280.61060185185</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6081,10 +5943,8 @@
           <t>4314045475</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:38:30</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44280.61006944445</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6157,10 +6017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:38:04</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44280.60976851852</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6236,10 +6094,8 @@
           <t>4314036652</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:37:00</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44280.60902777778</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6311,10 +6167,8 @@
           <t>4313893557</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:36:35</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44280.60873842592</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6382,10 +6236,8 @@
           <t>4314024162</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:34:18</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44280.60715277777</v>
       </c>
       <c r="I83" t="n">
         <v>2</v>
@@ -6457,10 +6309,8 @@
           <t>4314030861</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:33:40</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44280.60671296297</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6537,10 +6387,8 @@
           <t>4314022701</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:32:49</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44280.60612268518</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6608,10 +6456,8 @@
           <t>4314019757</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:32:30</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44280.60590277778</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6683,10 +6529,8 @@
           <t>4313648765</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:32:18</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44280.60576388889</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6754,10 +6598,8 @@
           <t>4314012503</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:28:46</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44280.60331018519</v>
       </c>
       <c r="I88" t="n">
         <v>2</v>
@@ -6833,10 +6675,8 @@
           <t>4314002578</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:25:08</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44280.60078703704</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6900,10 +6740,8 @@
           <t>4313998171</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:24:23</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44280.60026620371</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6971,10 +6809,8 @@
           <t>4313648765</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:24:10</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44280.60011574074</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7038,10 +6874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:23:17</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44280.59950231481</v>
       </c>
       <c r="I92" t="n">
         <v>3</v>
@@ -7101,10 +6935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:22:14</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44280.59877314815</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7180,10 +7012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:18:40</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44280.59629629629</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7255,10 +7085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:18:09</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44280.5959375</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7318,10 +7146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:16:34</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44280.59483796296</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7394,10 +7220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:12:30</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44280.59201388889</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7473,10 +7297,8 @@
           <t>4313946709</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:12:17</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44280.59186342593</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7540,10 +7362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:12:10</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44280.59178240741</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7615,10 +7435,8 @@
           <t>4313559313</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:10:31</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44280.59063657407</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7694,10 +7512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:10:13</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44280.59042824074</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7762,10 +7578,8 @@
           <t>4313559313</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:08:53</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44280.58950231481</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7833,10 +7647,8 @@
           <t>4313946975</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:06:02</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44280.58752314815</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7908,10 +7720,8 @@
           <t>4313946709</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:05:45</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44280.58732638889</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7983,10 +7793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:05:04</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44280.58685185185</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8058,10 +7866,8 @@
           <t>4313933479</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:02:27</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44280.58503472222</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8137,10 +7943,8 @@
           <t>4313940163</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:02:23</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44280.58498842592</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8200,10 +8004,8 @@
           <t>4313936159</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:01:59</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44280.58471064815</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8279,10 +8081,8 @@
           <t>4313935135</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:00:57</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44280.58399305555</v>
       </c>
       <c r="I109" t="n">
         <v>20</v>
@@ -8350,10 +8150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:00:45</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44280.58385416667</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8421,10 +8219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:59:56</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44280.58328703704</v>
       </c>
       <c r="I111" t="n">
         <v>2</v>
@@ -8500,10 +8296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:58:25</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44280.5822337963</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8571,10 +8365,8 @@
           <t>4313748627</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:57:51</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44280.58184027778</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8646,10 +8438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:57:49</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44280.58181712963</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8721,10 +8511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:56:04</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44280.58060185185</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8796,10 +8584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:54:46</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44280.57969907407</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8863,10 +8649,8 @@
           <t>4313680329</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:54:13</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44280.57931712963</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8942,10 +8726,8 @@
           <t>4313911081</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:53:32</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44280.57884259259</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9009,10 +8791,8 @@
           <t>4313894626</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:50:26</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44280.57668981481</v>
       </c>
       <c r="I119" t="n">
         <v>4</v>
@@ -9076,10 +8856,8 @@
           <t>4313893557</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:49:24</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44280.57597222222</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9156,10 +8934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:48:16</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44280.57518518518</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9223,10 +8999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:47:22</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44280.57456018519</v>
       </c>
       <c r="I122" t="n">
         <v>2</v>
@@ -9290,10 +9064,8 @@
           <t>4313876470</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:42:36</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44280.57125</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9361,10 +9133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:42:30</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44280.57118055555</v>
       </c>
       <c r="I124" t="n">
         <v>3</v>
@@ -9440,10 +9210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:41:08</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44280.57023148148</v>
       </c>
       <c r="I125" t="n">
         <v>3</v>
@@ -9519,10 +9287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:40:03</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44280.56947916667</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9598,10 +9364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:39:57</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44280.56940972222</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9680,10 +9444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:39:47</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44280.56929398148</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9748,10 +9510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:39:28</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44280.56907407408</v>
       </c>
       <c r="I129" t="n">
         <v>5</v>
@@ -9823,10 +9583,8 @@
           <t>4313859377</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:38:57</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44280.56871527778</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9902,10 +9660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:35:17</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44280.56616898148</v>
       </c>
       <c r="I131" t="n">
         <v>3</v>
@@ -9977,10 +9733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:34:45</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44280.56579861111</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10048,10 +9802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:32:57</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44280.56454861111</v>
       </c>
       <c r="I133" t="n">
         <v>2</v>
@@ -10127,10 +9879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:30:10</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44280.56261574074</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10206,10 +9956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:30:04</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44280.5625462963</v>
       </c>
       <c r="I135" t="n">
         <v>2</v>
@@ -10286,10 +10034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:29:55</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44280.56244212963</v>
       </c>
       <c r="I136" t="n">
         <v>60</v>
@@ -10353,10 +10099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:29:31</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44280.56216435185</v>
       </c>
       <c r="I137" t="n">
         <v>2</v>
@@ -10428,10 +10172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:29:20</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44280.56203703704</v>
       </c>
       <c r="I138" t="n">
         <v>4</v>
@@ -10507,10 +10249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:27:54</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44280.56104166667</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10586,10 +10326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:26:14</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44280.55988425926</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10649,10 +10387,8 @@
           <t>4313797336</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:20:08</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44280.55564814815</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10728,10 +10464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:18:21</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44280.55440972222</v>
       </c>
       <c r="I142" t="n">
         <v>2</v>
@@ -10791,10 +10525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:18:03</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44280.55420138889</v>
       </c>
       <c r="I143" t="n">
         <v>3</v>
@@ -10858,10 +10590,8 @@
           <t>4313787514</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:18:01</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44280.55417824074</v>
       </c>
       <c r="I144" t="n">
         <v>3</v>
@@ -10925,10 +10655,8 @@
           <t>4313790184</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:17:43</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44280.55396990741</v>
       </c>
       <c r="I145" t="n">
         <v>7</v>
@@ -10988,10 +10716,8 @@
           <t>4313787090</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:17:42</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44280.55395833333</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11063,10 +10789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:14:57</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44280.55204861111</v>
       </c>
       <c r="I147" t="n">
         <v>2</v>
@@ -11126,10 +10850,8 @@
           <t>4313772831</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:14:32</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44280.55175925926</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11205,10 +10927,8 @@
           <t>4313769239</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:13:42</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44280.55118055556</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11280,10 +11000,8 @@
           <t>4313648765</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:13:42</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44280.55118055556</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11347,10 +11065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:13:30</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44280.55104166667</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11422,10 +11138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:13:28</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44280.55101851852</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11493,10 +11207,8 @@
           <t>4313559313</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:13:28</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44280.55101851852</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11564,10 +11276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:12:31</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44280.5503587963</v>
       </c>
       <c r="I154" t="n">
         <v>15</v>
@@ -11639,10 +11349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:11:35</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44280.54971064815</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11718,10 +11426,8 @@
           <t>4313757720</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:10:44</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44280.54912037037</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11785,10 +11491,8 @@
           <t>4313760609</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:10:24</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44280.54888888889</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11856,10 +11560,8 @@
           <t>4313760331</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:10:11</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44280.54873842592</v>
       </c>
       <c r="I158" t="n">
         <v>3</v>
@@ -11935,10 +11637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:09:37</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44280.54834490741</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12002,10 +11702,8 @@
           <t>4313559313</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:09:15</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44280.54809027778</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12081,10 +11779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:09:09</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44280.54802083333</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12152,10 +11848,8 @@
           <t>4313748627</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:08:55</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44280.54785879629</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12223,10 +11917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:08:41</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44280.54769675926</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12298,10 +11990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:07:44</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44280.54703703704</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12365,10 +12055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:07:34</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44280.5469212963</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12436,10 +12124,8 @@
           <t>4313746650</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:07:29</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44280.54686342592</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12511,10 +12197,8 @@
           <t>4313746657</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:07:29</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44280.54686342592</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12590,10 +12274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:06:52</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44280.54643518518</v>
       </c>
       <c r="I168" t="n">
         <v>2</v>
@@ -12657,10 +12339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:06:51</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44280.54642361111</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12732,10 +12412,8 @@
           <t>4313595763</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:06:28</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44280.54615740741</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12803,10 +12481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:06:15</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44280.54600694445</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12878,10 +12554,8 @@
           <t>4313559313</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:05:34</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44280.54553240741</v>
       </c>
       <c r="I172" t="n">
         <v>2</v>
@@ -12957,10 +12631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:04:51</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44280.54503472222</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13024,10 +12696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:04:30</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44280.54479166667</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13099,10 +12769,8 @@
           <t>4313680329</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:04:28</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44280.54476851852</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13179,10 +12847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:04:07</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44280.54452546296</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13258,10 +12924,8 @@
           <t>4313736266</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:04:04</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44280.54449074074</v>
       </c>
       <c r="I177" t="n">
         <v>2</v>
@@ -13337,10 +13001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:03:40</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44280.54421296297</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13412,10 +13074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:03:38</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44280.54418981481</v>
       </c>
       <c r="I179" t="n">
         <v>2</v>
@@ -13483,10 +13143,8 @@
           <t>4313648765</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:03:21</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44280.54399305556</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13554,10 +13212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:03:16</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44280.54393518518</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13621,10 +13277,8 @@
           <t>4313680329</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:02:43</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44280.54355324074</v>
       </c>
       <c r="I182" t="n">
         <v>3</v>
@@ -13700,10 +13354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:01:15</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44280.54253472222</v>
       </c>
       <c r="I183" t="n">
         <v>2</v>
@@ -13779,10 +13431,8 @@
           <t>4313722176</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:01:14</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44280.54252314815</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13846,10 +13496,8 @@
           <t>4313690327</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:01:04</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44280.54240740741</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13917,10 +13565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:01:02</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44280.54238425926</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13993,10 +13639,8 @@
           <t>4313710950</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:58:54</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44280.54090277778</v>
       </c>
       <c r="I187" t="n">
         <v>3</v>
@@ -14065,10 +13709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:58:49</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44280.54084490741</v>
       </c>
       <c r="I188" t="n">
         <v>6</v>
@@ -14136,10 +13778,8 @@
           <t>4313559313</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:58:46</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44280.54081018519</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14207,10 +13847,8 @@
           <t>4313703665</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:58:32</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44280.54064814815</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14286,10 +13924,8 @@
           <t>4313710197</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:58:23</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44280.54054398148</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14365,10 +14001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:57:11</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44280.53971064815</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14432,10 +14066,8 @@
           <t>4313701481</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:57:06</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44280.53965277778</v>
       </c>
       <c r="I193" t="n">
         <v>2</v>
@@ -14503,10 +14135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:56:57</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44280.53954861111</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14574,10 +14204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:56:45</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44280.53940972222</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14641,10 +14269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:56:40</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44280.53935185185</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14708,10 +14334,8 @@
           <t>4313705313</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:56:31</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44280.53924768518</v>
       </c>
       <c r="I197" t="n">
         <v>31</v>
@@ -14783,10 +14407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:55:46</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44280.53872685185</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14854,10 +14476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:55:25</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44280.5384837963</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14921,10 +14541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:55:23</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44280.53846064815</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14988,10 +14606,8 @@
           <t>4313666643</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:55:22</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44280.53844907408</v>
       </c>
       <c r="I201" t="n">
         <v>2</v>
@@ -15068,10 +14684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:54:34</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44280.53789351852</v>
       </c>
       <c r="I202" t="n">
         <v>2</v>
@@ -15143,10 +14757,8 @@
           <t>4313680329</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:54:28</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44280.53782407408</v>
       </c>
       <c r="I203" t="n">
         <v>3</v>
@@ -15223,10 +14835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:53:57</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44280.53746527778</v>
       </c>
       <c r="I204" t="n">
         <v>7</v>
@@ -15294,10 +14904,8 @@
           <t>4313691478</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:53:51</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44280.53739583334</v>
       </c>
       <c r="I205" t="n">
         <v>2</v>
@@ -15369,10 +14977,8 @@
           <t>4313559313</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:53:41</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44280.53728009259</v>
       </c>
       <c r="I206" t="n">
         <v>5</v>
@@ -15448,10 +15054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:53:14</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44280.53696759259</v>
       </c>
       <c r="I207" t="n">
         <v>6</v>
@@ -15515,10 +15119,8 @@
           <t>4313690327</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:53:06</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44280.536875</v>
       </c>
       <c r="I208" t="n">
         <v>3</v>
@@ -15586,10 +15188,8 @@
           <t>4313682074</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:52:59</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44280.53679398148</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15666,10 +15266,8 @@
           <t>4313666183</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:52:05</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44280.53616898148</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15745,10 +15343,8 @@
           <t>4313680329</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:51:51</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44280.53600694444</v>
       </c>
       <c r="I211" t="n">
         <v>17</v>
@@ -15824,10 +15420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:51:41</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44280.5358912037</v>
       </c>
       <c r="I212" t="n">
         <v>2</v>
@@ -15903,10 +15497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:51:38</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44280.53585648148</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15970,10 +15562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:51:05</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44280.53547453704</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16045,10 +15635,8 @@
           <t>4313570586</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:50:38</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44280.53516203703</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16112,10 +15700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:50:05</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44280.5347800926</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16179,10 +15765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:49:55</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44280.53466435185</v>
       </c>
       <c r="I217" t="n">
         <v>2</v>
@@ -16260,10 +15844,8 @@
           <t>4313648765</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:49:22</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44280.53428240741</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16327,10 +15909,8 @@
           <t>4313666643</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:49:21</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44280.53427083333</v>
       </c>
       <c r="I219" t="n">
         <v>34</v>
@@ -16406,10 +15986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:49:19</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44280.53424768519</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16485,10 +16063,8 @@
           <t>4313666183</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:49:04</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44280.53407407407</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16556,10 +16132,8 @@
           <t>4313648765</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:47:34</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44280.53303240741</v>
       </c>
       <c r="I222" t="n">
         <v>4</v>
@@ -16631,10 +16205,8 @@
           <t>4313603242</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:47:11</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44280.5327662037</v>
       </c>
       <c r="I223" t="n">
         <v>17</v>
@@ -16698,10 +16270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:47:01</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44280.53265046296</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16777,10 +16347,8 @@
           <t>4313648765</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:45:34</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44280.53164351852</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -16844,10 +16412,8 @@
           <t>4313650053</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:45:09</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44280.53135416667</v>
       </c>
       <c r="I226" t="n">
         <v>7</v>
@@ -16911,10 +16477,8 @@
           <t>4313645525</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:43:29</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44280.53019675926</v>
       </c>
       <c r="I227" t="n">
         <v>6</v>
@@ -16982,10 +16546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:42:49</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44280.5297337963</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17061,10 +16623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:42:43</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44280.52966435185</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17128,10 +16688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:41:54</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44280.52909722222</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17199,10 +16757,8 @@
           <t>4313570586</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:41:41</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44280.52894675926</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17266,10 +16822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:39:55</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44280.5277199074</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17337,10 +16891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:39:35</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44280.52748842593</v>
       </c>
       <c r="I233" t="n">
         <v>3</v>
@@ -17408,10 +16960,8 @@
           <t>4313570586</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:39:16</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44280.52726851852</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17487,10 +17037,8 @@
           <t>4313570586</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:38:40</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44280.52685185185</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17566,10 +17114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:38:38</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44280.5268287037</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17633,10 +17179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:38:35</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44280.52679398148</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17708,10 +17252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:37:58</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44280.52636574074</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -17775,10 +17317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:37:54</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44280.52631944444</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17854,10 +17394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:37:54</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44280.52631944444</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17925,10 +17463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:37:36</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44280.52611111111</v>
       </c>
       <c r="I241" t="n">
         <v>1</v>
@@ -18004,10 +17540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:37:17</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44280.5258912037</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18080,10 +17614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:36:40</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44280.52546296296</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18151,10 +17683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:36:26</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44280.52530092592</v>
       </c>
       <c r="I244" t="n">
         <v>16</v>
@@ -18218,10 +17748,8 @@
           <t>4313606366</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:36:26</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44280.52530092592</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18289,10 +17817,8 @@
           <t>4313570586</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:36:11</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44280.52512731482</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18356,10 +17882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:36:02</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44280.52502314815</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18431,10 +17955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:35:38</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44280.52474537037</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18498,10 +18020,8 @@
           <t>4313603242</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:35:33</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44280.5246875</v>
       </c>
       <c r="I249" t="n">
         <v>18</v>
@@ -18573,10 +18093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:35:27</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44280.52461805556</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18644,10 +18162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:35:15</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44280.52447916667</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18711,10 +18227,8 @@
           <t>4313597744</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:35:04</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44280.52435185185</v>
       </c>
       <c r="I252" t="n">
         <v>29</v>
@@ -18790,10 +18304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:34:45</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44280.52413194445</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18869,10 +18381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:33:49</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44280.5234837963</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18948,10 +18458,8 @@
           <t>4313595763</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:33:47</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44280.52346064815</v>
       </c>
       <c r="I255" t="n">
         <v>4</v>
@@ -19019,10 +18527,8 @@
           <t>4313589088</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:32:52</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44280.52282407408</v>
       </c>
       <c r="I256" t="n">
         <v>2</v>
@@ -19090,10 +18596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:32:47</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44280.52276620371</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19166,10 +18670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:32:46</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44280.52275462963</v>
       </c>
       <c r="I258" t="n">
         <v>5</v>
@@ -19241,10 +18743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:32:35</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44280.52262731481</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19320,10 +18820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:32:08</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44280.52231481481</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19395,10 +18893,8 @@
           <t>4313570586</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:31:25</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44280.52181712963</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19474,10 +18970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:31:13</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44280.52167824074</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19553,10 +19047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:30:38</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44280.52127314815</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19632,10 +19124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:30:31</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44280.52119212963</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19695,10 +19185,8 @@
           <t>4313570586</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:30:06</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44280.52090277777</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19762,10 +19250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:29:38</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44280.5205787037</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19833,10 +19319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:28:37</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44280.51987268519</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19904,10 +19388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:27:38</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44280.51918981481</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19983,10 +19465,8 @@
           <t>4313570586</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:27:27</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44280.5190625</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20062,10 +19542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:27:03</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44280.51878472222</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20137,10 +19615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:27:01</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44280.51876157407</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20200,10 +19676,8 @@
           <t>4313553430</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:26:46</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44280.51858796296</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -20271,10 +19745,8 @@
           <t>4313559313</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:26:39</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44280.51850694444</v>
       </c>
       <c r="I273" t="n">
         <v>28</v>
@@ -20350,10 +19822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:26:22</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44280.51831018519</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20421,10 +19891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:25:52</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44280.51796296296</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20488,10 +19956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:25:44</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44280.51787037037</v>
       </c>
       <c r="I276" t="n">
         <v>4</v>
@@ -20563,10 +20029,8 @@
           <t>4313553430</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:25:41</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44280.51783564815</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20635,10 +20099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:25:18</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44280.51756944445</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20710,10 +20172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:24:52</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44280.51726851852</v>
       </c>
       <c r="I279" t="n">
         <v>3</v>
@@ -20785,10 +20245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:24:30</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44280.51701388889</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20860,10 +20318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:23:39</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44280.51642361111</v>
       </c>
       <c r="I281" t="n">
         <v>6</v>
@@ -20931,10 +20387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:23:36</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44280.51638888889</v>
       </c>
       <c r="I282" t="n">
         <v>6</v>
@@ -21006,10 +20460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:23:23</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44280.51623842592</v>
       </c>
       <c r="I283" t="n">
         <v>3</v>
@@ -21077,10 +20529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:23:17</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44280.51616898148</v>
       </c>
       <c r="I284" t="n">
         <v>3</v>
@@ -21144,10 +20594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:23:17</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44280.51616898148</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21211,10 +20659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:22:44</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44280.51578703704</v>
       </c>
       <c r="I286" t="n">
         <v>6</v>
@@ -21286,10 +20732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:22:40</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44280.51574074074</v>
       </c>
       <c r="I287" t="n">
         <v>242</v>
@@ -21357,10 +20801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:22:35</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44280.51568287037</v>
       </c>
       <c r="I288" t="n">
         <v>6</v>
@@ -21428,10 +20870,8 @@
           <t>4313534813</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:22:35</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44280.51568287037</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21503,10 +20943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:22:30</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44280.515625</v>
       </c>
       <c r="I290" t="n">
         <v>6</v>
@@ -21574,10 +21012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:21:56</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44280.51523148148</v>
       </c>
       <c r="I291" t="n">
         <v>5</v>
@@ -21653,10 +21089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:21:48</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44280.51513888889</v>
       </c>
       <c r="I292" t="n">
         <v>38</v>
@@ -21729,10 +21163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:21:26</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44280.51488425926</v>
       </c>
       <c r="I293" t="n">
         <v>37</v>
@@ -21792,10 +21224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:20:58</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44280.51456018518</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21871,10 +21301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:20:46</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44280.5144212963</v>
       </c>
       <c r="I295" t="n">
         <v>2</v>
@@ -21946,10 +21374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:20:01</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44280.51390046296</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -22017,10 +21443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:19:48</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44280.51375</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -22088,10 +21512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:19:26</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44280.51349537037</v>
       </c>
       <c r="I298" t="n">
         <v>101</v>
@@ -22155,10 +21577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:19:14</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44280.51335648148</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -22234,10 +21654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:19:11</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44280.51332175926</v>
       </c>
       <c r="I300" t="n">
         <v>8</v>
@@ -22305,10 +21723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:18:33</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44280.51288194444</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22380,10 +21796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:18:25</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44280.51278935185</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22451,10 +21865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:17:18</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44280.51201388889</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22518,10 +21930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:17:07</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44280.51188657407</v>
       </c>
       <c r="I304" t="n">
         <v>110</v>
@@ -22593,10 +22003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:17:05</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44280.51186342593</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22668,10 +22076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:16:59</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44280.51179398148</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22747,10 +22153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:16:36</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44280.51152777778</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -22818,10 +22222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:16:30</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44280.51145833333</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22893,10 +22295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:16:30</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44280.51145833333</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -22960,10 +22360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:16:09</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44280.51121527778</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -23027,10 +22425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:15:52</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44280.51101851852</v>
       </c>
       <c r="I311" t="n">
         <v>1</v>
@@ -23102,10 +22498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:15:35</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44280.51082175926</v>
       </c>
       <c r="I312" t="n">
         <v>413</v>
@@ -23169,10 +22563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:15:09</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44280.51052083333</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23244,10 +22636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:14:09</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44280.50982638889</v>
       </c>
       <c r="I314" t="n">
         <v>1</v>
@@ -23315,10 +22705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:14:00</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44280.50972222222</v>
       </c>
       <c r="I315" t="n">
         <v>55</v>
@@ -23386,10 +22774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:13:23</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44280.50929398148</v>
       </c>
       <c r="I316" t="n">
         <v>170</v>
@@ -23457,10 +22843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:12:55</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44280.50896990741</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23532,10 +22916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:12:50</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44280.50891203704</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23599,10 +22981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:12:48</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44280.50888888889</v>
       </c>
       <c r="I319" t="n">
         <v>19</v>
@@ -23674,10 +23054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:11:45</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44280.50815972222</v>
       </c>
       <c r="I320" t="n">
         <v>3</v>
@@ -23741,10 +23119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:11:40</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44280.50810185185</v>
       </c>
       <c r="I321" t="n">
         <v>901</v>
@@ -23816,10 +23192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:11:36</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44280.50805555555</v>
       </c>
       <c r="I322" t="n">
         <v>4</v>
@@ -23887,10 +23261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:11:16</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44280.50782407408</v>
       </c>
       <c r="I323" t="n">
         <v>1</v>
@@ -23958,10 +23330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:11:01</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44280.50765046296</v>
       </c>
       <c r="I324" t="n">
         <v>5</v>
@@ -24033,10 +23403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:10:43</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44280.50744212963</v>
       </c>
       <c r="I325" t="n">
         <v>1</v>
@@ -24100,10 +23468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:10:39</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44280.50739583333</v>
       </c>
       <c r="I326" t="n">
         <v>31</v>
@@ -24167,10 +23533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:10:28</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44280.50726851852</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24234,10 +23598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:10:12</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44280.50708333333</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24301,10 +23663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:09:50</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44280.50682870371</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24380,10 +23740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:09:44</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44280.50675925926</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24455,10 +23813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:09:31</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44280.5066087963</v>
       </c>
       <c r="I331" t="n">
         <v>386</v>
@@ -24530,10 +23886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:09:27</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44280.5065625</v>
       </c>
       <c r="I332" t="n">
         <v>6</v>
@@ -24601,10 +23955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:09:27</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44280.5065625</v>
       </c>
       <c r="I333" t="n">
         <v>71</v>
@@ -24680,10 +24032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:09:26</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44280.50655092593</v>
       </c>
       <c r="I334" t="n">
         <v>1</v>
